--- a/Base_de_Dados/England Premier League_20222023.xlsx
+++ b/Base_de_Dados/England Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="90">
   <si>
     <t>League</t>
   </si>
@@ -250,9 +250,6 @@
     <t>['19', '77']</t>
   </si>
   <si>
-    <t>['61']</t>
-  </si>
-  <si>
     <t>['20', '85']</t>
   </si>
   <si>
@@ -287,9 +284,6 @@
   </si>
   <si>
     <t>['68', '90+6']</t>
-  </si>
-  <si>
-    <t>['32']</t>
   </si>
 </sst>
 </file>
@@ -651,7 +645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO21"/>
+  <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -886,7 +880,7 @@
         <v>63</v>
       </c>
       <c r="AI2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ2">
         <v>3</v>
@@ -1011,7 +1005,7 @@
         <v>64</v>
       </c>
       <c r="AI3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ3">
         <v>4</v>
@@ -1261,7 +1255,7 @@
         <v>66</v>
       </c>
       <c r="AI5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AJ5">
         <v>4</v>
@@ -1511,7 +1505,7 @@
         <v>68</v>
       </c>
       <c r="AI7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ7">
         <v>9</v>
@@ -1636,7 +1630,7 @@
         <v>63</v>
       </c>
       <c r="AI8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AJ8">
         <v>5</v>
@@ -1761,7 +1755,7 @@
         <v>69</v>
       </c>
       <c r="AI9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AJ9">
         <v>3</v>
@@ -1886,7 +1880,7 @@
         <v>70</v>
       </c>
       <c r="AI10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AJ10">
         <v>6</v>
@@ -2011,7 +2005,7 @@
         <v>63</v>
       </c>
       <c r="AI11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ11">
         <v>2</v>
@@ -2136,7 +2130,7 @@
         <v>71</v>
       </c>
       <c r="AI12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ12">
         <v>5</v>
@@ -2386,7 +2380,7 @@
         <v>72</v>
       </c>
       <c r="AI14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ14">
         <v>5</v>
@@ -2511,7 +2505,7 @@
         <v>73</v>
       </c>
       <c r="AI15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AJ15">
         <v>8</v>
@@ -3136,7 +3130,7 @@
         <v>77</v>
       </c>
       <c r="AI20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AJ20">
         <v>4</v>
@@ -3155,131 +3149,6 @@
       </c>
       <c r="AO20">
         <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:41">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="2">
-        <v>44788.66666666666</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21">
-        <v>1.62</v>
-      </c>
-      <c r="I21">
-        <v>2.75</v>
-      </c>
-      <c r="J21">
-        <v>11</v>
-      </c>
-      <c r="K21">
-        <v>1.25</v>
-      </c>
-      <c r="L21">
-        <v>2.25</v>
-      </c>
-      <c r="M21">
-        <v>5.5</v>
-      </c>
-      <c r="N21">
-        <v>3.75</v>
-      </c>
-      <c r="O21">
-        <v>1.57</v>
-      </c>
-      <c r="P21">
-        <v>1.14</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-      <c r="T21">
-        <v>1.22</v>
-      </c>
-      <c r="U21">
-        <v>6.5</v>
-      </c>
-      <c r="V21">
-        <v>15</v>
-      </c>
-      <c r="W21">
-        <v>1.02</v>
-      </c>
-      <c r="X21">
-        <v>1.17</v>
-      </c>
-      <c r="Y21">
-        <v>1.6</v>
-      </c>
-      <c r="Z21">
-        <v>18</v>
-      </c>
-      <c r="AA21">
-        <v>5.3</v>
-      </c>
-      <c r="AB21">
-        <v>2.42</v>
-      </c>
-      <c r="AC21">
-        <v>1</v>
-      </c>
-      <c r="AD21">
-        <v>1</v>
-      </c>
-      <c r="AE21">
-        <v>2</v>
-      </c>
-      <c r="AF21">
-        <v>2.2</v>
-      </c>
-      <c r="AG21">
-        <v>1.62</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ21">
-        <v>5</v>
-      </c>
-      <c r="AK21">
-        <v>4</v>
-      </c>
-      <c r="AL21">
-        <v>20</v>
-      </c>
-      <c r="AM21">
-        <v>4</v>
-      </c>
-      <c r="AN21">
-        <v>25</v>
-      </c>
-      <c r="AO21">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
